--- a/data.xlsx
+++ b/data.xlsx
@@ -397,13 +397,2146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>phone</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Vicky  "Katz"
+      </v>
+      </c>
+      <c r="B2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (651) 982-1217
+        </v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Lester S.  "Lester the Lister"
+      </v>
+      </c>
+      <c r="B3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (630) 207-2532
+        </v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Christina  "Queen" Stratford
+      </v>
+      </c>
+      <c r="B4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (661) 236-6241
+        </v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Travis B. Conti  &amp; Associates
+      </v>
+      </c>
+      <c r="B5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (517) 930-1721
+        </v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Deserie Boutell  &amp; Jippi Scott
+      </v>
+      </c>
+      <c r="B6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (805) 501-8275
+        </v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Eric Aubrey  (Wroblewski)
+      </v>
+      </c>
+      <c r="B7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (239) 312-3183
+        </v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        The Smith Team  -Candace and Robert Smith
+      </v>
+      </c>
+      <c r="B8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (864) 884-4892
+        </v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        KYMRY  A. PEREZ
+      </v>
+      </c>
+      <c r="B9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (808) 635-1490
+        </v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Abe  Aalami
+      </v>
+      </c>
+      <c r="B10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (206) 948-6283
+        </v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Michael  Aanerud
+      </v>
+      </c>
+      <c r="B11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (805) 459-7768
+        </v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Mary  Aaron
+      </v>
+      </c>
+      <c r="B12" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (214) 802-3954
+        </v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Brittani  Aaron
+      </v>
+      </c>
+      <c r="B13" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (832) 269-0928
+        </v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Kristy  Aasheim
+      </v>
+      </c>
+      <c r="B14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (406) 480-9383
+        </v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Daisy  Aasland
+      </v>
+      </c>
+      <c r="B15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (714) 878-0440
+        </v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Jesusa  Abary
+      </v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (732) 441-3400
+        </v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Frank  Abbadessa
+      </v>
+      </c>
+      <c r="B17" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (562) 754-2099
+        </v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Nick  Abbadessa
+      </v>
+      </c>
+      <c r="B18" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (909) 292-7888
+        </v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Agha "Kamil"  Abbas
+      </v>
+      </c>
+      <c r="B19" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (732) 379-2930
+        </v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Sultan  Abbas
+      </v>
+      </c>
+      <c r="B20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (520) 208-5723
+        </v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Zahid "zach"  Abbasi
+      </v>
+      </c>
+      <c r="B21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (703) 622-1974
+        </v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Amjad "Ali"  Abbasi
+      </v>
+      </c>
+      <c r="B22" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (571) 214-7001
+        </v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Marwan  Abbasi
+      </v>
+      </c>
+      <c r="B23" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (201) 988-8481
+        </v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Bill  Abbatematteo
+      </v>
+      </c>
+      <c r="B24" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (941) 740-1660
+        </v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Hope  Abbe
+      </v>
+      </c>
+      <c r="B25" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (989) 295-7532
+        </v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Stacey  Abbey
+      </v>
+      </c>
+      <c r="B26" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (409) 781-8444
+        </v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Alaina  Abbey
+      </v>
+      </c>
+      <c r="B27" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (910) 915-2228
+        </v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Brant  Abbitt
+      </v>
+      </c>
+      <c r="B28" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (757) 879-9676
+        </v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Alfred  Abbitt
+      </v>
+      </c>
+      <c r="B29" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (757) 873-3636
+        </v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Stephanie  Abbott
+      </v>
+      </c>
+      <c r="B30" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (405) 210-0022
+        </v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Robert  Abbott
+      </v>
+      </c>
+      <c r="B31" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (610) 248-8875
+        </v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Matthew  Abbott
+      </v>
+      </c>
+      <c r="B32" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (727) 992-4570
+        </v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Andrea  Abbott
+      </v>
+      </c>
+      <c r="B33" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (208) 596-5773
+        </v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Blair  Abbott
+      </v>
+      </c>
+      <c r="B34" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (972) 571-9013
+        </v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Jason  Abboud
+      </v>
+      </c>
+      <c r="B35" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (949) 463-7653
+        </v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Necole  Abboud
+      </v>
+      </c>
+      <c r="B36" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (949) 910-6454
+        </v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Alex  Abboud
+      </v>
+      </c>
+      <c r="B37" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (949) 542-2550
+        </v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Ray  Abboud
+      </v>
+      </c>
+      <c r="B38" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (717) 577-5235
+        </v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Mike  Abboud
+      </v>
+      </c>
+      <c r="B39" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (949) 501-2941
+        </v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Hana  Abdalla
+      </v>
+      </c>
+      <c r="B40" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (612) 404-9662
+        </v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Ali  Abdallah
+      </v>
+      </c>
+      <c r="B41" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (313) 721-1217
+        </v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Batoul  Abdallah
+      </v>
+      </c>
+      <c r="B42" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (734) 459-1010
+        </v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Ali  Abdallah
+      </v>
+      </c>
+      <c r="B43" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (313) 790-6350
+        </v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Duha  Abdallah
+      </v>
+      </c>
+      <c r="B44" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (586) 219-1911
+        </v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Sami  Abdallah
+      </v>
+      </c>
+      <c r="B45" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (313) 528-3002
+        </v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Mark  Abdel
+      </v>
+      </c>
+      <c r="B46" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (651) 283-8251
+        </v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Aws  Abdelaziz
+      </v>
+      </c>
+      <c r="B47" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (267) 546-7777
+        </v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Jandark  Abdelmalak
+      </v>
+      </c>
+      <c r="B48" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (917) 832-2713
+        </v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Mervat  Abdelnour
+      </v>
+      </c>
+      <c r="B49" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (954) 608-7026
+        </v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Mohamed  Abdelsamad
+      </v>
+      </c>
+      <c r="B50" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (908) 229-0369
+        </v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Tamily  Abdo
+      </v>
+      </c>
+      <c r="B51" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (813) 501-3226
+        </v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Tammy  Abdo
+      </v>
+      </c>
+      <c r="B52" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (931) 292-8970
+        </v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Diana  Abdo-Sous
+      </v>
+      </c>
+      <c r="B53" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (954) 448-8503
+        </v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Tamia  Abdur-Rasheed
+      </v>
+      </c>
+      <c r="B54" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (240) 707-2057
+        </v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Nicholas  Abe
+      </v>
+      </c>
+      <c r="B55" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (775) 233-7356
+        </v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Mark  Abee
+      </v>
+      </c>
+      <c r="B56" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (210) 269-4875
+        </v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Robert  Abel
+      </v>
+      </c>
+      <c r="B57" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (609) 330-6372
+        </v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Pete  Abel
+      </v>
+      </c>
+      <c r="B58" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (303) 441-5603
+        </v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        David  Abel
+      </v>
+      </c>
+      <c r="B59" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (303) 725-0461
+        </v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Brandy  Abel
+      </v>
+      </c>
+      <c r="B60" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (812) 664-0756
+        </v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Bryton  Abel - RE/MAX 1st Class
+      </v>
+      </c>
+      <c r="B61" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (717) 887-5781
+        </v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Holly  Abel Grimm
+      </v>
+      </c>
+      <c r="B62" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (330) 268-6078
+        </v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Connie  Abels
+      </v>
+      </c>
+      <c r="B63" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (773) 442-2357
+        </v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        JoAnn  Abercrombie
+      </v>
+      </c>
+      <c r="B64" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (440) 781-1924
+        </v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Rachelle  Abercrombie
+      </v>
+      </c>
+      <c r="B65" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (720) 334-5001
+        </v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Michael  Abernathy
+      </v>
+      </c>
+      <c r="B66" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (360) 815-9261
+        </v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Tom  Abernethy
+      </v>
+      </c>
+      <c r="B67" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (828) 773-0621
+        </v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Nicole  Abert
+      </v>
+      </c>
+      <c r="B68" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (325) 338-4602
+        </v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Benjamin  Abeyta
+      </v>
+      </c>
+      <c r="B69" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (505) 217-8389
+        </v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Carrie  Abfall
+      </v>
+      </c>
+      <c r="B70" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (812) 390-8440
+        </v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Sara  Abinska
+      </v>
+      </c>
+      <c r="B71" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (773) 331-0144
+        </v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Jennifer  Abner
+      </v>
+      </c>
+      <c r="B72" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (248) 467-1995
+        </v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Renee  Abner
+      </v>
+      </c>
+      <c r="B73" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (502) 631-2030
+        </v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Kim  Abner
+      </v>
+      </c>
+      <c r="B74" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (757) 812-1660
+        </v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Amru  Abo-Alaial
+      </v>
+      </c>
+      <c r="B75" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (860) 941-6810
+        </v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Gena  Abong
+      </v>
+      </c>
+      <c r="B76" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (209) 938-9930
+        </v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Jean  Abood
+      </v>
+      </c>
+      <c r="B77" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (703) 401-9137
+        </v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Sandy  Abraham
+      </v>
+      </c>
+      <c r="B78" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (763) 286-2203
+        </v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Dayna  Abraham
+      </v>
+      </c>
+      <c r="B79" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (586) 321-8144
+        </v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Danielle  Abraham
+      </v>
+      </c>
+      <c r="B80" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (810) 348-5557
+        </v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Louis  Abraham
+      </v>
+      </c>
+      <c r="B81" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (586) 291-2424
+        </v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Keir  Abrahams
+      </v>
+      </c>
+      <c r="B82" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (610) 431-3346
+        </v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Ruth Ann  Abrahamson
+      </v>
+      </c>
+      <c r="B83" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (518) 424-0036
+        </v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Tim  Abrahamson
+      </v>
+      </c>
+      <c r="B84" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (262) 787-3024
+        </v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Bronwyn  Abraira
+      </v>
+      </c>
+      <c r="B85" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (208) 304-7098
+        </v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Amy  Abram
+      </v>
+      </c>
+      <c r="B86" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (515) 490-9090
+        </v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Benyamin  Abramov
+      </v>
+      </c>
+      <c r="B87" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (201) 747-0564
+        </v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        ELLA  ABRAMOVA
+      </v>
+      </c>
+      <c r="B88" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (201) 410-7401
+        </v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Kyler  Abramowicz
+      </v>
+      </c>
+      <c r="B89" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (707) 628-4240
+        </v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Dennis  Abramowicz
+      </v>
+      </c>
+      <c r="B90" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (707) 999-0807
+        </v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Ken  Abramowitz
+      </v>
+      </c>
+      <c r="B91" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (301) 526-2380
+        </v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Ed  Abrams
+      </v>
+      </c>
+      <c r="B92" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (617) 388-1764
+        </v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Erica  Abrams
+      </v>
+      </c>
+      <c r="B93" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (240) 462-8053
+        </v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Edgar  Abrams
+      </v>
+      </c>
+      <c r="B94" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (917) 833-3248
+        </v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Wendi  Abrams
+      </v>
+      </c>
+      <c r="B95" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (310) 567-7490
+        </v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Harvey  Abrams
+      </v>
+      </c>
+      <c r="B96" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (215) 245-2406
+        </v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Cheryl  Abrams Davis
+      </v>
+      </c>
+      <c r="B97" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (301) 702-4226
+        </v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
+      <c r="A98" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Barb  Abrams, CRS, CNE
+      </v>
+      </c>
+      <c r="B98" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (970) 238-0178
+        </v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Ali  Abree
+      </v>
+      </c>
+      <c r="B99" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (805) 218-1200
+        </v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
+      <c r="A100" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Joanna  Abreu
+      </v>
+      </c>
+      <c r="B100" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (631) 219-8357
+        </v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Vilma  Abreu
+      </v>
+      </c>
+      <c r="B101" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (646) 296-0518
+        </v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
+      <c r="A102" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Richard  Abreu
+      </v>
+      </c>
+      <c r="B102" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (305) 338-9374
+        </v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
+      <c r="A103" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Lilliam  Abreu
+      </v>
+      </c>
+      <c r="B103" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (401) 999-0770
+        </v>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
+      <c r="A104" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Livei  Abreu-Jimenez
+      </v>
+      </c>
+      <c r="B104" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (813) 841-6595
+        </v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
+      <c r="A105" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Monica  Abrew
+      </v>
+      </c>
+      <c r="B105" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (209) 915-3310
+        </v>
+      </c>
+    </row>
+    <row r="106" xml:space="preserve">
+      <c r="A106" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Crystal  Abril
+      </v>
+      </c>
+      <c r="B106" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (661) 544-2622
+        </v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
+      <c r="A107" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Tammy  Abrusci
+      </v>
+      </c>
+      <c r="B107" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (973) 229-3322
+        </v>
+      </c>
+    </row>
+    <row r="108" xml:space="preserve">
+      <c r="A108" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Brandy  Abruzzo
+      </v>
+      </c>
+      <c r="B108" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (561) 886-8085
+        </v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
+      <c r="A109" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        John  Abry
+      </v>
+      </c>
+      <c r="B109" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (802) 899-0668
+        </v>
+      </c>
+    </row>
+    <row r="110" xml:space="preserve">
+      <c r="A110" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Leonora  Absher
+      </v>
+      </c>
+      <c r="B110" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (606) 226-5846
+        </v>
+      </c>
+    </row>
+    <row r="111" xml:space="preserve">
+      <c r="A111" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Retta  Absher
+      </v>
+      </c>
+      <c r="B111" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (713) 733-3311
+        </v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
+      <c r="A112" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Anthonie  Abshire
+      </v>
+      </c>
+      <c r="B112" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (409) 795-4289
+        </v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="A113" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Sunday  Abubakar
+      </v>
+      </c>
+      <c r="B113" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (940) 337-7487
+        </v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
+      <c r="A114" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Yaffie  Abullarade
+      </v>
+      </c>
+      <c r="B114" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (910) 315-3806
+        </v>
+      </c>
+    </row>
+    <row r="115" xml:space="preserve">
+      <c r="A115" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Maria  Abundis
+      </v>
+      </c>
+      <c r="B115" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (805) 889-7424
+        </v>
+      </c>
+    </row>
+    <row r="116" xml:space="preserve">
+      <c r="A116" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Carrie  Abysalh
+      </v>
+      </c>
+      <c r="B116" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (508) 641-0150
+        </v>
+      </c>
+    </row>
+    <row r="117" xml:space="preserve">
+      <c r="A117" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Rhonda  Accardi
+      </v>
+      </c>
+      <c r="B117" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (732) 245-6339
+        </v>
+      </c>
+    </row>
+    <row r="118" xml:space="preserve">
+      <c r="A118" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Kimberly  Accardi
+      </v>
+      </c>
+      <c r="B118" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (404) 217-3069
+        </v>
+      </c>
+    </row>
+    <row r="119" xml:space="preserve">
+      <c r="A119" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Mary  Accetta
+      </v>
+      </c>
+      <c r="B119" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (414) 604-1415
+        </v>
+      </c>
+    </row>
+    <row r="120" xml:space="preserve">
+      <c r="A120" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Brenda  Acciardo
+      </v>
+      </c>
+      <c r="B120" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (401) 480-1100
+        </v>
+      </c>
+    </row>
+    <row r="121" xml:space="preserve">
+      <c r="A121" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Edward  Accomando
+      </v>
+      </c>
+      <c r="B121" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (978) 376-8835
+        </v>
+      </c>
+    </row>
+    <row r="122" xml:space="preserve">
+      <c r="A122" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Karen  Accurso
+      </v>
+      </c>
+      <c r="B122" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (908) 472-3595
+        </v>
+      </c>
+    </row>
+    <row r="123" xml:space="preserve">
+      <c r="A123" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Steven  Ace
+      </v>
+      </c>
+      <c r="B123" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (570) 903-1628
+        </v>
+      </c>
+    </row>
+    <row r="124" xml:space="preserve">
+      <c r="A124" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Juan  Aceituno
+      </v>
+      </c>
+      <c r="B124" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (269) 967-0181
+        </v>
+      </c>
+    </row>
+    <row r="125" xml:space="preserve">
+      <c r="A125" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Eliana  Acevedo
+      </v>
+      </c>
+      <c r="B125" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (305) 979-5606
+        </v>
+      </c>
+    </row>
+    <row r="126" xml:space="preserve">
+      <c r="A126" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Juan  Acevedo
+      </v>
+      </c>
+      <c r="B126" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (602) 576-6620
+        </v>
+      </c>
+    </row>
+    <row r="127" xml:space="preserve">
+      <c r="A127" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Elva  Acevedo
+      </v>
+      </c>
+      <c r="B127" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (408) 876-3407
+        </v>
+      </c>
+    </row>
+    <row r="128" xml:space="preserve">
+      <c r="A128" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        GINA M.  ACEVEDO
+      </v>
+      </c>
+      <c r="B128" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (831) 206-4552
+        </v>
+      </c>
+    </row>
+    <row r="129" xml:space="preserve">
+      <c r="A129" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Eva  Acevedo
+      </v>
+      </c>
+      <c r="B129" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (908) 902-1752
+        </v>
+      </c>
+    </row>
+    <row r="130" xml:space="preserve">
+      <c r="A130" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Christopher  Acevedo
+      </v>
+      </c>
+      <c r="B130" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (732) 473-1700
+        </v>
+      </c>
+    </row>
+    <row r="131" xml:space="preserve">
+      <c r="A131" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Hector  Acevedo
+      </v>
+      </c>
+      <c r="B131" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (773) 727-5805
+        </v>
+      </c>
+    </row>
+    <row r="132" xml:space="preserve">
+      <c r="A132" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Gloria  Acevedo-Schenone
+      </v>
+      </c>
+      <c r="B132" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (707) 217-9775
+        </v>
+      </c>
+    </row>
+    <row r="133" xml:space="preserve">
+      <c r="A133" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Eric  Aceves
+      </v>
+      </c>
+      <c r="B133" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (936) 306-3086
+        </v>
+      </c>
+    </row>
+    <row r="134" xml:space="preserve">
+      <c r="A134" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Jesus  Aceves
+      </v>
+      </c>
+      <c r="B134" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (661) 302-9441
+        </v>
+      </c>
+    </row>
+    <row r="135" xml:space="preserve">
+      <c r="A135" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Pamela  Achilles
+      </v>
+      </c>
+      <c r="B135" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (615) 975-4092
+        </v>
+      </c>
+    </row>
+    <row r="136" xml:space="preserve">
+      <c r="A136" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Kyle  Achziger
+      </v>
+      </c>
+      <c r="B136" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (406) 499-6750
+        </v>
+      </c>
+    </row>
+    <row r="137" xml:space="preserve">
+      <c r="A137" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Jonnell  Ackelson
+      </v>
+      </c>
+      <c r="B137" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (515) 599-1102
+        </v>
+      </c>
+    </row>
+    <row r="138" xml:space="preserve">
+      <c r="A138" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Brandon  Acken
+      </v>
+      </c>
+      <c r="B138" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (908) 720-4310
+        </v>
+      </c>
+    </row>
+    <row r="139" xml:space="preserve">
+      <c r="A139" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Jeanette  Acker
+      </v>
+      </c>
+      <c r="B139" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (608) 849-2867
+        </v>
+      </c>
+    </row>
+    <row r="140" xml:space="preserve">
+      <c r="A140" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Vernon  Acker
+      </v>
+      </c>
+      <c r="B140" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (608) 849-7043
+        </v>
+      </c>
+    </row>
+    <row r="141" xml:space="preserve">
+      <c r="A141" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Melissa  Acker
+      </v>
+      </c>
+      <c r="B141" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (573) 876-2865
+        </v>
+      </c>
+    </row>
+    <row r="142" xml:space="preserve">
+      <c r="A142" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Kevin  Acker
+      </v>
+      </c>
+      <c r="B142" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (407) 629-6330
+        </v>
+      </c>
+    </row>
+    <row r="143" xml:space="preserve">
+      <c r="A143" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Joshua  Acker
+      </v>
+      </c>
+      <c r="B143" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (772) 353-2276
+        </v>
+      </c>
+    </row>
+    <row r="144" xml:space="preserve">
+      <c r="A144" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Kevin  Acker
+      </v>
+      </c>
+      <c r="B144" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (407) 450-1328
+        </v>
+      </c>
+    </row>
+    <row r="145" xml:space="preserve">
+      <c r="A145" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Judy  Acker Maly
+      </v>
+      </c>
+      <c r="B145" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (608) 212-2000
+        </v>
+      </c>
+    </row>
+    <row r="146" xml:space="preserve">
+      <c r="A146" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Peggy  Acker-Farber
+      </v>
+      </c>
+      <c r="B146" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (608) 849-2860
+        </v>
+      </c>
+    </row>
+    <row r="147" xml:space="preserve">
+      <c r="A147" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Sandra  Ackerman
+      </v>
+      </c>
+      <c r="B147" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (810) 241-9247
+        </v>
+      </c>
+    </row>
+    <row r="148" xml:space="preserve">
+      <c r="A148" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Richard  Ackerman
+      </v>
+      </c>
+      <c r="B148" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (303) 588-8478
+        </v>
+      </c>
+    </row>
+    <row r="149" xml:space="preserve">
+      <c r="A149" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Matthew  Ackerman
+      </v>
+      </c>
+      <c r="B149" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (609) 752-4887
+        </v>
+      </c>
+    </row>
+    <row r="150" xml:space="preserve">
+      <c r="A150" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Sarah  Ackerman
+      </v>
+      </c>
+      <c r="B150" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (504) 862-5400
+        </v>
+      </c>
+    </row>
+    <row r="151" xml:space="preserve">
+      <c r="A151" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Jan  Ackerman
+      </v>
+      </c>
+      <c r="B151" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (620) 255-2440
+        </v>
+      </c>
+    </row>
+    <row r="152" xml:space="preserve">
+      <c r="A152" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Matt  Ackermann
+      </v>
+      </c>
+      <c r="B152" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (614) 595-0653
+        </v>
+      </c>
+    </row>
+    <row r="153" xml:space="preserve">
+      <c r="A153" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Mara  Ackermann
+      </v>
+      </c>
+      <c r="B153" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (614) 855-6500
+        </v>
+      </c>
+    </row>
+    <row r="154" xml:space="preserve">
+      <c r="A154" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Marty  Ackermann
+      </v>
+      </c>
+      <c r="B154" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (614) 595-0652
+        </v>
+      </c>
+    </row>
+    <row r="155" xml:space="preserve">
+      <c r="A155" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Pamela  Ackermann-Doll
+      </v>
+      </c>
+      <c r="B155" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (410) 320-0366
+        </v>
+      </c>
+    </row>
+    <row r="156" xml:space="preserve">
+      <c r="A156" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Jay  Ackett
+      </v>
+      </c>
+      <c r="B156" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (801) 529-2566
+        </v>
+      </c>
+    </row>
+    <row r="157" xml:space="preserve">
+      <c r="A157" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Heather  Ackley
+      </v>
+      </c>
+      <c r="B157" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (941) 202-9898
+        </v>
+      </c>
+    </row>
+    <row r="158" xml:space="preserve">
+      <c r="A158" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Maria  Ackmakian
+      </v>
+      </c>
+      <c r="B158" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (508) 371-4089
+        </v>
+      </c>
+    </row>
+    <row r="159" xml:space="preserve">
+      <c r="A159" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Karissa  Acoba
+      </v>
+      </c>
+      <c r="B159" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (831) 345-9239
+        </v>
+      </c>
+    </row>
+    <row r="160" xml:space="preserve">
+      <c r="A160" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Britta  Acord
+      </v>
+      </c>
+      <c r="B160" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (970) 270-1405
+        </v>
+      </c>
+    </row>
+    <row r="161" xml:space="preserve">
+      <c r="A161" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Deborah  Acosta
+      </v>
+      </c>
+      <c r="B161" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (210) 483-5002
+        </v>
+      </c>
+    </row>
+    <row r="162" xml:space="preserve">
+      <c r="A162" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Shirley  Acosta
+      </v>
+      </c>
+      <c r="B162" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (805) 377-8377
+        </v>
+      </c>
+    </row>
+    <row r="163" xml:space="preserve">
+      <c r="A163" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Anna  Acosta
+      </v>
+      </c>
+      <c r="B163" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (901) 246-6583
+        </v>
+      </c>
+    </row>
+    <row r="164" xml:space="preserve">
+      <c r="A164" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Alice  Acosta
+      </v>
+      </c>
+      <c r="B164" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (602) 743-8294
+        </v>
+      </c>
+    </row>
+    <row r="165" xml:space="preserve">
+      <c r="A165" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Michael  Acosta
+      </v>
+      </c>
+      <c r="B165" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (210) 379-0334
+        </v>
+      </c>
+    </row>
+    <row r="166" xml:space="preserve">
+      <c r="A166" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Deborah  Acosta
+      </v>
+      </c>
+      <c r="B166" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (732) 390-1050
+        </v>
+      </c>
+    </row>
+    <row r="167" xml:space="preserve">
+      <c r="A167" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Miguel  Acosta
+      </v>
+      </c>
+      <c r="B167" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (239) 940-3708
+        </v>
+      </c>
+    </row>
+    <row r="168" xml:space="preserve">
+      <c r="A168" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        David  Acosta
+      </v>
+      </c>
+      <c r="B168" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (864) 729-0544
+        </v>
+      </c>
+    </row>
+    <row r="169" xml:space="preserve">
+      <c r="A169" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Jorge  Acosta
+      </v>
+      </c>
+      <c r="B169" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (907) 792-9677
+        </v>
+      </c>
+    </row>
+    <row r="170" xml:space="preserve">
+      <c r="A170" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Valfred  Acosta
+      </v>
+      </c>
+      <c r="B170" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (805) 469-1000
+        </v>
+      </c>
+    </row>
+    <row r="171" xml:space="preserve">
+      <c r="A171" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Rick  Acosta
+      </v>
+      </c>
+      <c r="B171" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (210) 710-7230
+        </v>
+      </c>
+    </row>
+    <row r="172" xml:space="preserve">
+      <c r="A172" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        David  Acosta
+      </v>
+      </c>
+      <c r="B172" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (210) 379-0208
+        </v>
+      </c>
+    </row>
+    <row r="173" xml:space="preserve">
+      <c r="A173" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Michelle  Acosta-Gonzalez
+      </v>
+      </c>
+      <c r="B173" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (210) 638-9463
+        </v>
+      </c>
+    </row>
+    <row r="174" xml:space="preserve">
+      <c r="A174" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Janine  Acquafredda
+      </v>
+      </c>
+      <c r="B174" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (917) 584-7685
+        </v>
+      </c>
+    </row>
+    <row r="175" xml:space="preserve">
+      <c r="A175" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Janine  Acquafredda
+      </v>
+      </c>
+      <c r="B175" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (917) 584-7685
+        </v>
+      </c>
+    </row>
+    <row r="176" xml:space="preserve">
+      <c r="A176" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Leigh Ann  Acra
+      </v>
+      </c>
+      <c r="B176" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (618) 978-3837
+        </v>
+      </c>
+    </row>
+    <row r="177" xml:space="preserve">
+      <c r="A177" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Kristel  Acre
+      </v>
+      </c>
+      <c r="B177" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (303) 845-2373
+        </v>
+      </c>
+    </row>
+    <row r="178" xml:space="preserve">
+      <c r="A178" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        Valerie  Acree
+      </v>
+      </c>
+      <c r="B178" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+          (727) 542-0365
+        </v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B178"/>
   </ignoredErrors>
 </worksheet>
 </file>